--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail9 Features.xlsx
@@ -3798,7 +3798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3809,29 +3809,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3852,115 +3850,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3977,72 +3965,66 @@
         <v>2.710895918852071e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.28919381848677</v>
+        <v>2.028117384548709e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.124266734342674</v>
+        <v>9.393326775461673e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.028117384548709e-06</v>
+        <v>0.1022969783311994</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>9.393326775461673e-06</v>
+        <v>0.4026246748978426</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1022969783311994</v>
+        <v>0.1721138350812142</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.4026246748978426</v>
+        <v>1.456475784916292</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1721138350812142</v>
+        <v>1.646379648599777</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.362925538312841</v>
+        <v>3.345273719923346</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.646379648599777</v>
+        <v>9.568734355304594e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.345273719923346</v>
+        <v>7595320.388994924</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>9.568734355304594e-14</v>
+        <v>1.316777674403512e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>7595320.388994924</v>
+        <v>5.520096809959777</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.316777674403512e-05</v>
+        <v>0.0001699015663737307</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5.520096809959777</v>
+        <v>10.0310476072144</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001699015663737307</v>
+        <v>1.386484399182169</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.0310476072144</v>
+        <v>0.01709582115661059</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.386484399182169</v>
+        <v>2.531266235456128</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01709582115661059</v>
+        <v>0.9304466203888332</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.531266235456128</v>
+        <v>1.905399772916794</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9304466203888332</v>
+        <v>8</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.905399772916794</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1839399904845369</v>
       </c>
     </row>
@@ -4057,72 +4039,66 @@
         <v>2.095467079427568e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.9747339087088508</v>
+        <v>1.412635871957959e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2.997274516628626</v>
+        <v>9.415114256211728e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.412635871957959e-06</v>
+        <v>0.07876723186023935</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>9.415114256211728e-06</v>
+        <v>0.3717884223460852</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.07876723186023935</v>
+        <v>0.1440459827508168</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3717884223460852</v>
+        <v>1.462481025598729</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1440459827508168</v>
+        <v>1.51038966044293</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.367116072646823</v>
+        <v>3.410943519035184</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.51038966044293</v>
+        <v>9.203833622987548e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.410943519035184</v>
+        <v>7869065.405089256</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.203833622987548e-14</v>
+        <v>1.275971288426104e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>7869065.405089256</v>
+        <v>5.699215375484308</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.275971288426104e-05</v>
+        <v>0.0001601103338385516</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>5.699215375484308</v>
+        <v>9.534751080501692</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001601103338385516</v>
+        <v>1.437665980680296</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.534751080501692</v>
+        <v>0.01455586711909508</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.437665980680296</v>
+        <v>2.688287027799462</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01455586711909508</v>
+        <v>0.9316137381251177</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.688287027799462</v>
+        <v>1.930615132882134</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9316137381251177</v>
+        <v>8</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.930615132882134</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.18751219060964</v>
       </c>
     </row>
@@ -4137,72 +4113,66 @@
         <v>1.799730574233772e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.06567225303380063</v>
+        <v>1.005320061688944e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.1239550054350587</v>
+        <v>9.42749711294757e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.005320061688944e-06</v>
+        <v>0.04935849607290977</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>9.42749711294757e-06</v>
+        <v>0.3276488194385427</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04935849607290977</v>
+        <v>0.1095866042976878</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3276488194385427</v>
+        <v>1.518407674336595</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1095866042976878</v>
+        <v>1.465326419195878</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.417716808504237</v>
+        <v>3.42741574461056</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.465326419195878</v>
+        <v>9.115578610874945e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.42741574461056</v>
+        <v>7569695.506333074</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.115578610874945e-14</v>
+        <v>1.384169112610478e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>7569695.506333074</v>
+        <v>5.223252984550965</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.384169112610478e-05</v>
+        <v>0.0001460557124929067</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.223252984550965</v>
+        <v>8.914576786199133</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001460557124929067</v>
+        <v>1.501323087157264</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.914576786199133</v>
+        <v>0.01160700062839093</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.501323087157264</v>
+        <v>2.803121592930346</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01160700062839093</v>
+        <v>0.9352694344860233</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.803121592930346</v>
+        <v>1.883640471035051</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9352694344860233</v>
+        <v>7</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.883640471035051</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2068760018382458</v>
       </c>
     </row>
@@ -4217,72 +4187,66 @@
         <v>1.679154289285327e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.294355871168208</v>
+        <v>7.569271741640279e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8499162742723043</v>
+        <v>9.433850906410632e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.569271741640279e-07</v>
+        <v>0.02545337431392924</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>9.433850906410632e-06</v>
+        <v>0.2976026729930524</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02545337431392924</v>
+        <v>0.08913166021601761</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2976026729930524</v>
+        <v>1.528579939345169</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.08913166021601761</v>
+        <v>1.45610743663316</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.425579510493415</v>
+        <v>3.641580037733656</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.45610743663316</v>
+        <v>7.825464646857852e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.641580037733656</v>
+        <v>9029423.083980948</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.825464646857852e-14</v>
+        <v>1.174198891358779e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>9029423.083980948</v>
+        <v>6.380138985029791</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.174198891358779e-05</v>
+        <v>0.0001475409399623334</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>6.380138985029791</v>
+        <v>8.977600200852855</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001475409399623334</v>
+        <v>1.510455707938205</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.977600200852855</v>
+        <v>0.01189140219218297</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.510455707938205</v>
+        <v>2.704798267651818</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01189140219218297</v>
+        <v>0.9349144614057164</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.704798267651818</v>
+        <v>1.880173479887919</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9349144614057164</v>
+        <v>7</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.880173479887919</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2202231408203195</v>
       </c>
     </row>
@@ -4297,72 +4261,66 @@
         <v>1.636812947023106e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3865518879326215</v>
+        <v>6.106396525308931e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9149493638002912</v>
+        <v>9.436737074420411e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.106396525308931e-07</v>
+        <v>0.01106784981426731</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>9.436737074420411e-06</v>
+        <v>0.282951894742252</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01106784981426731</v>
+        <v>0.08015728002089893</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.282951894742252</v>
+        <v>1.525831112004296</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.08015728002089893</v>
+        <v>1.548840351840926</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.427836959587956</v>
+        <v>3.776941093332406</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.548840351840926</v>
+        <v>6.617259461642301e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.776941093332406</v>
+        <v>10636783.67375616</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.617259461642301e-14</v>
+        <v>9.928440144943848e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>10636783.67375616</v>
+        <v>7.486844573177452</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.928440144943848e-06</v>
+        <v>0.0001442694116012264</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>7.486844573177452</v>
+        <v>8.677800368600289</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001442694116012264</v>
+        <v>1.490719266674529</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.677800368600289</v>
+        <v>0.01086409540045204</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.490719266674529</v>
+        <v>2.80414472359494</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01086409540045204</v>
+        <v>0.9350389558130332</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.80414472359494</v>
+        <v>1.876077450328175</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9350389558130332</v>
+        <v>7</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.876077450328175</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2043455720282353</v>
       </c>
     </row>
@@ -4377,72 +4335,66 @@
         <v>1.623054463073046e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4039011277304577</v>
+        <v>6.010939716430584e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9026310590403956</v>
+        <v>9.437935567868256e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.010939716430584e-07</v>
+        <v>0.004766093231520904</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>9.437935567868256e-06</v>
+        <v>0.2798855502198899</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.004766093231520904</v>
+        <v>0.07835562891671767</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2798855502198899</v>
+        <v>1.552388895950205</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.07835562891671767</v>
+        <v>1.589333612101806</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.450552538708569</v>
+        <v>3.80280888525432</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.589333612101806</v>
+        <v>6.527540672635253e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.80280888525432</v>
+        <v>10727283.99095812</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.527540672635253e-14</v>
+        <v>9.962766886541799e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>10727283.99095812</v>
+        <v>7.511542743355745</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>9.962766886541799e-06</v>
+        <v>0.0001587605733279306</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>7.511542743355745</v>
+        <v>9.392774145591682</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001587605733279306</v>
+        <v>1.437134049331421</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.392774145591682</v>
+        <v>0.01400652554979071</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.437134049331421</v>
+        <v>2.665685619293416</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01400652554979071</v>
+        <v>0.9411558888469213</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.665685619293416</v>
+        <v>1.869268088342545</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9411558888469213</v>
+        <v>9</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.869268088342545</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1932834884274875</v>
       </c>
     </row>
@@ -4819,7 +4771,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.399849706462524</v>
+        <v>1.381840669489806</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.960645959700951</v>
@@ -4908,7 +4860,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.415141708620955</v>
+        <v>1.395942423560223</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.978562375864406</v>
@@ -4997,7 +4949,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.40858644675502</v>
+        <v>1.387013181752252</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.998662830300233</v>
@@ -5086,7 +5038,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.411171405761845</v>
+        <v>1.388927891437056</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.975881961505618</v>
@@ -5175,7 +5127,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.413906249705531</v>
+        <v>1.385170521013198</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.97000099594296</v>
@@ -5264,7 +5216,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.415166509259334</v>
+        <v>1.387215281978348</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.9719194487536</v>
@@ -5353,7 +5305,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.397658953286519</v>
+        <v>1.369086104692457</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.992995330280019</v>
@@ -5442,7 +5394,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.394731794318008</v>
+        <v>1.363069594595181</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.983059570969477</v>
@@ -5531,7 +5483,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.412441386638063</v>
+        <v>1.383401498239925</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.949167494345906</v>
@@ -5620,7 +5572,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.406199119108702</v>
+        <v>1.374712576173589</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.002760669163955</v>
@@ -5709,7 +5661,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.421281384071614</v>
+        <v>1.386656598275234</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.818841519619659</v>
@@ -5798,7 +5750,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.46162246749961</v>
+        <v>1.423636220028524</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.647529249841508</v>
@@ -5887,7 +5839,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.461894175076508</v>
+        <v>1.421074233275979</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.480067872671959</v>
@@ -5976,7 +5928,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.472907519259608</v>
+        <v>1.437006242604932</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.568272644485714</v>
@@ -6065,7 +6017,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.491589195608156</v>
+        <v>1.444204316131692</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.638168365627019</v>
@@ -6154,7 +6106,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.499176868063717</v>
+        <v>1.45161527931621</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.478406901778546</v>
@@ -6243,7 +6195,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.503927742716268</v>
+        <v>1.456804282197421</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.585786077490478</v>
@@ -6332,7 +6284,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.507473476731793</v>
+        <v>1.459336586681439</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.556802449457628</v>
@@ -6421,7 +6373,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.509503884955707</v>
+        <v>1.462554285532748</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.611796127187372</v>
@@ -6510,7 +6462,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.515995572479759</v>
+        <v>1.473393749427658</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.4791395228419</v>
@@ -6599,7 +6551,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.526981185057157</v>
+        <v>1.48346724752643</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.356758554147403</v>
@@ -6688,7 +6640,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.539957664577522</v>
+        <v>1.492765866075511</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.349529121860936</v>
@@ -6777,7 +6729,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.529591186112667</v>
+        <v>1.483177433647531</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.491026091669275</v>
@@ -6866,7 +6818,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.527091132524618</v>
+        <v>1.485050968913376</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.630734314016628</v>
@@ -6955,7 +6907,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.557524167680029</v>
+        <v>1.505497801516783</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.920032579878739</v>
@@ -7044,7 +6996,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.551772329146501</v>
+        <v>1.504432505486639</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.82449834800966</v>
@@ -7133,7 +7085,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.534017820421298</v>
+        <v>1.487354209728831</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.616654122427043</v>
@@ -7222,7 +7174,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.533405340214782</v>
+        <v>1.483677720402467</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.361032874823958</v>
@@ -7311,7 +7263,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.528524453662609</v>
+        <v>1.481654856466188</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.671547563499368</v>
@@ -7400,7 +7352,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.53260843330178</v>
+        <v>1.480343051438018</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.515941797144257</v>
@@ -7489,7 +7441,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.529111158091932</v>
+        <v>1.480807463017481</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.449079678301196</v>
@@ -7578,7 +7530,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.519507806868158</v>
+        <v>1.478019263431672</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.818671184870011</v>
@@ -7667,7 +7619,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.511671556015484</v>
+        <v>1.473940403943309</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.691908246747085</v>
@@ -7756,7 +7708,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.5080765512685</v>
+        <v>1.47127690738168</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.633089171044962</v>
@@ -7845,7 +7797,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.504491807724425</v>
+        <v>1.469707929753766</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.522659158788136</v>
@@ -7934,7 +7886,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.487789176659585</v>
+        <v>1.454034246636299</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.765426448515854</v>
@@ -8023,7 +7975,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.479103208184659</v>
+        <v>1.451696453905537</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.5734447449789</v>
@@ -8112,7 +8064,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.503328312835024</v>
+        <v>1.474106771057466</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.742023112242751</v>
@@ -8201,7 +8153,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.501879693320509</v>
+        <v>1.467951233880716</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.620483541688615</v>
@@ -8290,7 +8242,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.493655956170794</v>
+        <v>1.461973435593029</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.600711113221762</v>
@@ -8379,7 +8331,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.502324221114923</v>
+        <v>1.473791897285462</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.729375644390359</v>
@@ -8468,7 +8420,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.499723293943924</v>
+        <v>1.470005815887145</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.574085708130349</v>
@@ -8557,7 +8509,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.501745713445509</v>
+        <v>1.46987762881184</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.585416205533432</v>
@@ -8646,7 +8598,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.506585979248421</v>
+        <v>1.476467622355082</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.680161161880874</v>
@@ -8735,7 +8687,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.506387781609892</v>
+        <v>1.477869913226881</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.465981676436418</v>
@@ -8824,7 +8776,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.513350386975614</v>
+        <v>1.482810017917434</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.478390725799854</v>
@@ -8913,7 +8865,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.435009160793411</v>
+        <v>1.405201141475602</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.886024275335696</v>
@@ -9002,7 +8954,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.368388066293855</v>
+        <v>1.339750128445826</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.92407873843193</v>
@@ -9091,7 +9043,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.355393914241634</v>
+        <v>1.332389566527553</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.928484384211581</v>
@@ -9180,7 +9132,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.347322913958171</v>
+        <v>1.326642578193289</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.943234505952901</v>
@@ -9269,7 +9221,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.355087364083134</v>
+        <v>1.333186361328291</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.890662042404296</v>
@@ -9555,7 +9507,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.561287091000283</v>
+        <v>1.528171188245227</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.996214146719343</v>
@@ -9644,7 +9596,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.565421551379129</v>
+        <v>1.527704456914421</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.797767930060003</v>
@@ -9733,7 +9685,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.564700885345211</v>
+        <v>1.526248532996141</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.555079570865135</v>
@@ -9822,7 +9774,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.567221061699497</v>
+        <v>1.522883954405466</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.939693443063131</v>
@@ -9911,7 +9863,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.554397599652144</v>
+        <v>1.504811167609504</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.078220681805851</v>
@@ -10000,7 +9952,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.551551284056259</v>
+        <v>1.50401561057302</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.19281803822861</v>
@@ -10089,7 +10041,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.524774055334224</v>
+        <v>1.480276225202264</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.276966124518684</v>
@@ -10178,7 +10130,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.512824146710266</v>
+        <v>1.473577677103256</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.240038161914408</v>
@@ -10267,7 +10219,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.507686848620651</v>
+        <v>1.46501398959255</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.007497155014142</v>
@@ -10356,7 +10308,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.502778439742618</v>
+        <v>1.461187705462153</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.183613851485478</v>
@@ -10445,7 +10397,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.502717680475323</v>
+        <v>1.457284245492981</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.082064146099598</v>
@@ -10534,7 +10486,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.514664479363866</v>
+        <v>1.468741236993808</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.27002540380738</v>
@@ -10623,7 +10575,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.504674128537508</v>
+        <v>1.466309898325887</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.265685233772536</v>
@@ -10712,7 +10664,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.498967062355796</v>
+        <v>1.464827618026919</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.113185924281486</v>
@@ -10801,7 +10753,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.517663314733667</v>
+        <v>1.474177708014629</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.913428440814454</v>
@@ -10890,7 +10842,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.526531975853924</v>
+        <v>1.475966287734927</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.100107564181601</v>
@@ -10979,7 +10931,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.525753252969288</v>
+        <v>1.480758890450708</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.190914402114971</v>
@@ -11068,7 +11020,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.528783752347105</v>
+        <v>1.482638705516099</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.156745195135597</v>
@@ -11157,7 +11109,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.523944038219735</v>
+        <v>1.486662507712503</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.914666024216542</v>
@@ -11246,7 +11198,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.534402739119374</v>
+        <v>1.499025188951448</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.077091540542117</v>
@@ -11335,7 +11287,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.548223462039469</v>
+        <v>1.509639215701222</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.700396576642728</v>
@@ -11424,7 +11376,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.568095484837971</v>
+        <v>1.524021202264932</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.676848144715563</v>
@@ -11513,7 +11465,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.576639166323903</v>
+        <v>1.534337067014987</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.978674577379258</v>
@@ -11602,7 +11554,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.581434107091657</v>
+        <v>1.537894508052143</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.112614103850173</v>
@@ -11691,7 +11643,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.590195660556644</v>
+        <v>1.545930881766008</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.149743418489595</v>
@@ -11780,7 +11732,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.593076636753442</v>
+        <v>1.552565008996905</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.111140668131938</v>
@@ -11869,7 +11821,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.591911069563271</v>
+        <v>1.550004282919241</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.302014753263475</v>
@@ -11958,7 +11910,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.612098897268404</v>
+        <v>1.56258854154013</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.725657019138687</v>
@@ -12047,7 +11999,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.618531187390296</v>
+        <v>1.570846986558726</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.972711625559926</v>
@@ -12136,7 +12088,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.602217258142146</v>
+        <v>1.562899060163976</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.223789187729169</v>
@@ -12225,7 +12177,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.595266237687428</v>
+        <v>1.560844085954997</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.103392233466704</v>
@@ -12314,7 +12266,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.593008172656575</v>
+        <v>1.561907821854012</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.869808613915375</v>
@@ -12403,7 +12355,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.589109076054327</v>
+        <v>1.559125395150462</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.021808750509225</v>
@@ -12492,7 +12444,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.593405906504479</v>
+        <v>1.564182240456073</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.06735276762278</v>
@@ -12581,7 +12533,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.586773551787812</v>
+        <v>1.561197409021041</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.136604333185094</v>
@@ -12670,7 +12622,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.582447101043426</v>
+        <v>1.554002919507077</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.098400784183724</v>
@@ -12759,7 +12711,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.578875366597306</v>
+        <v>1.549512844017872</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.098170820343906</v>
@@ -12848,7 +12800,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.585521283548892</v>
+        <v>1.558174840601717</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.345422739724695</v>
@@ -12937,7 +12889,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.594170109095288</v>
+        <v>1.567039727254469</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.080776371931722</v>
@@ -13026,7 +12978,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.589495806743389</v>
+        <v>1.560074984188281</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.196473406745058</v>
@@ -13115,7 +13067,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.593698873093726</v>
+        <v>1.56434152953495</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.022967880085015</v>
@@ -13204,7 +13156,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.589945342370955</v>
+        <v>1.562871720944633</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.130436121296893</v>
@@ -13293,7 +13245,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.588523826148213</v>
+        <v>1.561624186552961</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.551385607637777</v>
@@ -13382,7 +13334,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.5935622416545</v>
+        <v>1.56374355482452</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.969133551930325</v>
@@ -13471,7 +13423,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.603361090120202</v>
+        <v>1.568494047794563</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.870691391652396</v>
@@ -13560,7 +13512,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.608591905099514</v>
+        <v>1.575135879856128</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.268508024161305</v>
@@ -13649,7 +13601,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.588838742152669</v>
+        <v>1.55382548816179</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.0541605153251</v>
@@ -13738,7 +13690,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.592474203855628</v>
+        <v>1.556825543420746</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.173757431831206</v>
@@ -13827,7 +13779,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.599970647080673</v>
+        <v>1.565417652478395</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.087294644725389</v>
@@ -13916,7 +13868,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.596485213606139</v>
+        <v>1.563902665146304</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.29401179227603</v>
@@ -14005,7 +13957,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.593776083908724</v>
+        <v>1.56656590028553</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.380278885843884</v>
@@ -14291,7 +14243,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.573850108257747</v>
+        <v>1.50896927043266</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.389354552882679</v>
@@ -14380,7 +14332,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.580187493841889</v>
+        <v>1.516381127154949</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.321988562897356</v>
@@ -14469,7 +14421,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.585115660071008</v>
+        <v>1.524061521565383</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.009455816300548</v>
@@ -14558,7 +14510,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.58064285441394</v>
+        <v>1.521300223028905</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.059045298131022</v>
@@ -14647,7 +14599,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.575754675482507</v>
+        <v>1.514597692277498</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.185114694548612</v>
@@ -14736,7 +14688,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.562724510873273</v>
+        <v>1.512834183048428</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.093280615638331</v>
@@ -14825,7 +14777,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.546679215320478</v>
+        <v>1.501243324457096</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.098683539735483</v>
@@ -14914,7 +14866,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.547595902969727</v>
+        <v>1.49953716881071</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.996066415584762</v>
@@ -15003,7 +14955,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.558853019055468</v>
+        <v>1.504955267324261</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.898578551510965</v>
@@ -15092,7 +15044,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.5441198118836</v>
+        <v>1.496314009324597</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.003913068642756</v>
@@ -15181,7 +15133,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.543514349843446</v>
+        <v>1.49727907483521</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.055645316653853</v>
@@ -15270,7 +15222,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.547371815030727</v>
+        <v>1.502975453640336</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.138070146264804</v>
@@ -15359,7 +15311,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.554865171623101</v>
+        <v>1.511416212129332</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.951310503701347</v>
@@ -15448,7 +15400,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.558333114372245</v>
+        <v>1.522337049267281</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.123973995596441</v>
@@ -15537,7 +15489,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.563587509201579</v>
+        <v>1.519199310247915</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.024153118500887</v>
@@ -15626,7 +15578,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.570014897970502</v>
+        <v>1.521745285130898</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.284612786431488</v>
@@ -15715,7 +15667,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.564820485018072</v>
+        <v>1.518496187918659</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.180110704110646</v>
@@ -15804,7 +15756,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.568739545405387</v>
+        <v>1.523444676826535</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.922777070295582</v>
@@ -15893,7 +15845,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.562087304174816</v>
+        <v>1.517816250161149</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.221573511327646</v>
@@ -15982,7 +15934,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.555866267280795</v>
+        <v>1.515755969917251</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.990720724242135</v>
@@ -16071,7 +16023,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.571250316165241</v>
+        <v>1.527546855292619</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.232682388006395</v>
@@ -16160,7 +16112,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.588869306712141</v>
+        <v>1.545422747554827</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.321207560938247</v>
@@ -16249,7 +16201,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.576158045187724</v>
+        <v>1.53859321407504</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.262608349969079</v>
@@ -16338,7 +16290,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.573957116561936</v>
+        <v>1.536777837069078</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.229951487350345</v>
@@ -16427,7 +16379,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.582710825528288</v>
+        <v>1.540266461625732</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.346266501292358</v>
@@ -16516,7 +16468,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.571540952090987</v>
+        <v>1.531632827204503</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.090199984770365</v>
@@ -16605,7 +16557,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.559919490467785</v>
+        <v>1.525000414945787</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.925523229854673</v>
@@ -16694,7 +16646,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.55869182839341</v>
+        <v>1.52054668501884</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.933334344941277</v>
@@ -16783,7 +16735,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.557224412516447</v>
+        <v>1.516745972921199</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.904880618958383</v>
@@ -16872,7 +16824,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.557794885342919</v>
+        <v>1.521459856639169</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.149509956752932</v>
@@ -16961,7 +16913,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.541988695533345</v>
+        <v>1.508434688258532</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.108658354662763</v>
@@ -17050,7 +17002,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.532806815011958</v>
+        <v>1.501839807083638</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.869859265032609</v>
@@ -17139,7 +17091,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.50892654249914</v>
+        <v>1.476946201681685</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.116900433336219</v>
@@ -17228,7 +17180,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.521053844735612</v>
+        <v>1.486992893704183</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.147643419443162</v>
@@ -17317,7 +17269,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.519957055549208</v>
+        <v>1.485661052795285</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.003306561658917</v>
@@ -17406,7 +17358,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.510774159335102</v>
+        <v>1.479722470965696</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.831920761821502</v>
@@ -17495,7 +17447,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.50124303524032</v>
+        <v>1.466534299419306</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.723654976362115</v>
@@ -17584,7 +17536,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.505837458011585</v>
+        <v>1.469563657375831</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.838405836036852</v>
@@ -17673,7 +17625,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.503342538039904</v>
+        <v>1.465203823674787</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.093743740933163</v>
@@ -17762,7 +17714,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.502229148391442</v>
+        <v>1.463109929315872</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.922992113638619</v>
@@ -17851,7 +17803,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.502981415540671</v>
+        <v>1.459064579611573</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.680864870424635</v>
@@ -17940,7 +17892,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.511478530367641</v>
+        <v>1.463671515721728</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.067352128801038</v>
@@ -18029,7 +17981,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.510107703123691</v>
+        <v>1.462452506387912</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.078449393129396</v>
@@ -18118,7 +18070,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.501846559617841</v>
+        <v>1.453527143934371</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.747533545705112</v>
@@ -18207,7 +18159,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.49877510226957</v>
+        <v>1.449221284779125</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.967674684036521</v>
@@ -18296,7 +18248,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.51867465347156</v>
+        <v>1.460836682111592</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.974004929676159</v>
@@ -18385,7 +18337,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.510319787787627</v>
+        <v>1.456368328935872</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.787095542158061</v>
@@ -18474,7 +18426,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.518826451204289</v>
+        <v>1.46188858959534</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.697497486292301</v>
@@ -18563,7 +18515,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.499524721603834</v>
+        <v>1.450017311176798</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.713250500102349</v>
@@ -18652,7 +18604,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.505911069287148</v>
+        <v>1.456926974426268</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.639781126595732</v>
@@ -18741,7 +18693,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.51376710244487</v>
+        <v>1.458732990795174</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.854877447720463</v>
@@ -19027,7 +18979,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.555581726574122</v>
+        <v>1.507315180103912</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.234748368127986</v>
@@ -19116,7 +19068,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.558237227271766</v>
+        <v>1.502771299338076</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.364585559219517</v>
@@ -19205,7 +19157,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.554262037200814</v>
+        <v>1.496725703007795</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.917778885898603</v>
@@ -19294,7 +19246,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.546905812569519</v>
+        <v>1.491706299184964</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.697650170223012</v>
@@ -19383,7 +19335,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.533091816121024</v>
+        <v>1.475744531663145</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.465551672718533</v>
@@ -19472,7 +19424,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.519195118350918</v>
+        <v>1.460970848840021</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.133543799145459</v>
@@ -19561,7 +19513,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.513013981859625</v>
+        <v>1.451755923150441</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.47246271704328</v>
@@ -19650,7 +19602,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.514136322755634</v>
+        <v>1.447688990066624</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.226000616409979</v>
@@ -19739,7 +19691,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.50982080679983</v>
+        <v>1.441030966443566</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.936230393792</v>
@@ -19828,7 +19780,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.502046027579454</v>
+        <v>1.432399904880408</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.30250334030389</v>
@@ -19917,7 +19869,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.502482726317215</v>
+        <v>1.434016652842857</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.161798764901772</v>
@@ -20006,7 +19958,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.496185549207452</v>
+        <v>1.432449958751658</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.321643124943099</v>
@@ -20095,7 +20047,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.501024893641806</v>
+        <v>1.434834460646127</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.28168559190123</v>
@@ -20184,7 +20136,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.494747526371561</v>
+        <v>1.430882229443962</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.191220371637305</v>
@@ -20273,7 +20225,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.507703220205834</v>
+        <v>1.433145294567944</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.156883121115698</v>
@@ -20362,7 +20314,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.519249561473611</v>
+        <v>1.445904085990664</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.417936523903247</v>
@@ -20451,7 +20403,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.514730847369257</v>
+        <v>1.446517903559726</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.373919943087023</v>
@@ -20540,7 +20492,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.522418460503693</v>
+        <v>1.453709632128878</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.441487191732303</v>
@@ -20629,7 +20581,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.520950234522508</v>
+        <v>1.451953184987634</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.460185820247048</v>
@@ -20718,7 +20670,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.528709758250488</v>
+        <v>1.460395699081818</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.133031530521942</v>
@@ -20807,7 +20759,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.535753253765585</v>
+        <v>1.470334669052419</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.252553278748243</v>
@@ -20896,7 +20848,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.544911322093641</v>
+        <v>1.479062839200742</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.117981008139387</v>
@@ -20985,7 +20937,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.55073196455299</v>
+        <v>1.487506105504886</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.401771531014488</v>
@@ -21074,7 +21026,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.555238582956136</v>
+        <v>1.495462910184696</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.986974818148409</v>
@@ -21163,7 +21115,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.572090808446075</v>
+        <v>1.504600458859442</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.280128274223875</v>
@@ -21252,7 +21204,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.560691158683839</v>
+        <v>1.495421558557637</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.452690762382612</v>
@@ -21341,7 +21293,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.566793297290589</v>
+        <v>1.503986006394742</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.311238248536165</v>
@@ -21430,7 +21382,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.568573280986849</v>
+        <v>1.505423290700895</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.340244899296816</v>
@@ -21519,7 +21471,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.56061760362883</v>
+        <v>1.503896937713197</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.998731773208055</v>
@@ -21608,7 +21560,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.55647860355484</v>
+        <v>1.504907563549928</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.898531762276674</v>
@@ -21697,7 +21649,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.556296691834311</v>
+        <v>1.504013864231105</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.948396598076843</v>
@@ -21786,7 +21738,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.552551607787325</v>
+        <v>1.503693820424429</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.059865601723953</v>
@@ -21875,7 +21827,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.543857195601685</v>
+        <v>1.495119938772835</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.135175506699877</v>
@@ -21964,7 +21916,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.545891795350877</v>
+        <v>1.496907024876825</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.041603492550748</v>
@@ -22053,7 +22005,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.548625448851846</v>
+        <v>1.497800948926816</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.96350479409775</v>
@@ -22142,7 +22094,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.537946856373995</v>
+        <v>1.483836271080379</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.878297136198789</v>
@@ -22231,7 +22183,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.540939810657355</v>
+        <v>1.489059754410614</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.017677594323584</v>
@@ -22320,7 +22272,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.544957037054003</v>
+        <v>1.492577960965288</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.884406637473469</v>
@@ -22409,7 +22361,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.544182553694569</v>
+        <v>1.488370740821626</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.879287535769658</v>
@@ -22498,7 +22450,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.529826140365149</v>
+        <v>1.479030480020872</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.053893928533701</v>
@@ -22587,7 +22539,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.538624252085406</v>
+        <v>1.481321100778526</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.979094457435344</v>
@@ -22676,7 +22628,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.532026296109114</v>
+        <v>1.475726315021345</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.868168740101501</v>
@@ -22765,7 +22717,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.520973559004138</v>
+        <v>1.462887795418786</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.949384818450785</v>
@@ -22854,7 +22806,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.529029928931161</v>
+        <v>1.465929707532998</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.046668480407928</v>
@@ -22943,7 +22895,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.530101039245696</v>
+        <v>1.464467834226626</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.859413070673049</v>
@@ -23032,7 +22984,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.526638868715979</v>
+        <v>1.45837891768554</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.140841587924552</v>
@@ -23121,7 +23073,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.522111335054685</v>
+        <v>1.454303778254774</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.831169412952002</v>
@@ -23210,7 +23162,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.518299893930204</v>
+        <v>1.453938236642669</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.229492394589287</v>
@@ -23299,7 +23251,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.521400770451257</v>
+        <v>1.456656348811417</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.200357177503</v>
@@ -23388,7 +23340,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.524672044445901</v>
+        <v>1.459089476259089</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.143181285376458</v>
@@ -23477,7 +23429,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.530503973045734</v>
+        <v>1.468025827527276</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.904048357999228</v>
@@ -23763,7 +23715,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.619945303472998</v>
+        <v>1.609164628409679</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.976468866038184</v>
@@ -23852,7 +23804,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.610412543823802</v>
+        <v>1.593102606850698</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.847607337607263</v>
@@ -23941,7 +23893,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.606274132764277</v>
+        <v>1.584421693426632</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.202501245806602</v>
@@ -24030,7 +23982,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.611987636575526</v>
+        <v>1.583476837758437</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.107395976252052</v>
@@ -24119,7 +24071,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.596447680265829</v>
+        <v>1.569571079929427</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.205275813894751</v>
@@ -24208,7 +24160,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.578232936884609</v>
+        <v>1.549321638610687</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.326300162534926</v>
@@ -24297,7 +24249,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.562724513171497</v>
+        <v>1.531383657798667</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.429253166474886</v>
@@ -24386,7 +24338,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.540365398450644</v>
+        <v>1.5097772589201</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.314775123522645</v>
@@ -24475,7 +24427,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.54217112594873</v>
+        <v>1.507586610971211</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.946884388947685</v>
@@ -24564,7 +24516,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.539404680440239</v>
+        <v>1.506261427476928</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.406611679294648</v>
@@ -24653,7 +24605,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.538252532551256</v>
+        <v>1.498756090945283</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.059275520382388</v>
@@ -24742,7 +24694,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.524443876724264</v>
+        <v>1.487603083774146</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.256914609408512</v>
@@ -24831,7 +24783,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.539482371261608</v>
+        <v>1.497273798014733</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.315481236906845</v>
@@ -24920,7 +24872,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.534361251808584</v>
+        <v>1.493328047463613</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.454616120554547</v>
@@ -25009,7 +24961,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.558937638432833</v>
+        <v>1.511023557195854</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.52838617970948</v>
@@ -25098,7 +25050,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.555053465718047</v>
+        <v>1.504381693375974</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.362924728571097</v>
@@ -25187,7 +25139,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.558621609906173</v>
+        <v>1.511978458741104</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.511757731878522</v>
@@ -25276,7 +25228,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.554247831221488</v>
+        <v>1.510802178599507</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.165888482259599</v>
@@ -25365,7 +25317,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.5523472469799</v>
+        <v>1.51263907981588</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.274469075522668</v>
@@ -25454,7 +25406,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.560559942872999</v>
+        <v>1.515634305062055</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.034822291727597</v>
@@ -25543,7 +25495,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.577109976636455</v>
+        <v>1.530870544672898</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.15442933455159</v>
@@ -25632,7 +25584,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.585674639089106</v>
+        <v>1.539049557015501</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.838765758128931</v>
@@ -25721,7 +25673,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.606180910927832</v>
+        <v>1.557334158209758</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.022777441527414</v>
@@ -25810,7 +25762,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.604109910416423</v>
+        <v>1.553618431041005</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.889280819475043</v>
@@ -25899,7 +25851,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.611061166969239</v>
+        <v>1.552693269395032</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.984337648157098</v>
@@ -25988,7 +25940,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.609321763940076</v>
+        <v>1.564266381667692</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.107601789699979</v>
@@ -26077,7 +26029,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.618619641680036</v>
+        <v>1.569298822951223</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.350698472090264</v>
@@ -26166,7 +26118,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.620811996675939</v>
+        <v>1.573191610446386</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.300050018575617</v>
@@ -26255,7 +26207,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.612566673025291</v>
+        <v>1.568827824767024</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.882067682400126</v>
@@ -26344,7 +26296,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.607243443051844</v>
+        <v>1.563424306899844</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.755548962877783</v>
@@ -26433,7 +26385,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.612417762555298</v>
+        <v>1.572407523224919</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.9701712658132</v>
@@ -26522,7 +26474,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.603618148183229</v>
+        <v>1.568392282789155</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.031188713381654</v>
@@ -26611,7 +26563,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.60366121196214</v>
+        <v>1.569350660739151</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.823736131908232</v>
@@ -26700,7 +26652,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.609625716005846</v>
+        <v>1.57359295296458</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.170301615795413</v>
@@ -26789,7 +26741,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.611049452767758</v>
+        <v>1.577088780803825</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.931312873373229</v>
@@ -26878,7 +26830,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.600840967730597</v>
+        <v>1.566896660356457</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.968131604866758</v>
@@ -26967,7 +26919,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.607203973619116</v>
+        <v>1.569745387318912</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.035550765628244</v>
@@ -27056,7 +27008,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.610744996140414</v>
+        <v>1.578372346274128</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.853471560750021</v>
@@ -27145,7 +27097,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.615944565961411</v>
+        <v>1.584634482526699</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.06212752044471</v>
@@ -27234,7 +27186,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.617316142379743</v>
+        <v>1.591277617062855</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.133289324918715</v>
@@ -27323,7 +27275,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.622993366862455</v>
+        <v>1.591110618648368</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.09781184224753</v>
@@ -27412,7 +27364,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.626276903457809</v>
+        <v>1.600676581705996</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.894305516220502</v>
@@ -27501,7 +27453,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.634496913587475</v>
+        <v>1.602182599023675</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.654123167802995</v>
@@ -27590,7 +27542,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.629042910164146</v>
+        <v>1.603584730449096</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.229710778013411</v>
@@ -27679,7 +27631,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.624979951515414</v>
+        <v>1.599717731457422</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.339786929922124</v>
@@ -27768,7 +27720,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.631204034843949</v>
+        <v>1.604775630826301</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.541324741598358</v>
@@ -27857,7 +27809,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.62763065794066</v>
+        <v>1.601308328309105</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.844581945373948</v>
@@ -27946,7 +27898,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.629205784263595</v>
+        <v>1.607389232314055</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.054859103411985</v>
@@ -28035,7 +27987,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.622182726855482</v>
+        <v>1.603370434794732</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.15255785711644</v>
@@ -28124,7 +28076,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.616813115362066</v>
+        <v>1.596074609758743</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.237539956551802</v>
@@ -28213,7 +28165,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.603417158238868</v>
+        <v>1.589823680340272</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.372051632593478</v>
@@ -28499,7 +28451,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.44036287132429</v>
+        <v>1.411530935177452</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.316901527317504</v>
@@ -28588,7 +28540,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.454906323244291</v>
+        <v>1.417299612724109</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.195770188733083</v>
@@ -28677,7 +28629,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.455737651082484</v>
+        <v>1.412976883663471</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.236524647360135</v>
@@ -28766,7 +28718,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.458110250437018</v>
+        <v>1.417427463690966</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.301967716777594</v>
@@ -28855,7 +28807,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.454172663151759</v>
+        <v>1.413089075129514</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.316110861460459</v>
@@ -28944,7 +28896,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.446559054713746</v>
+        <v>1.40346155474304</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.313487933487698</v>
@@ -29033,7 +28985,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.433212407646556</v>
+        <v>1.388753738947593</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.37999101434345</v>
@@ -29122,7 +29074,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.428376065964693</v>
+        <v>1.383456478842038</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.37827927795345</v>
@@ -29211,7 +29163,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.470652873392462</v>
+        <v>1.416815281870745</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.480663318744702</v>
@@ -29300,7 +29252,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.462844194540323</v>
+        <v>1.407111176147258</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.347600132538392</v>
@@ -29389,7 +29341,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.430093610092839</v>
+        <v>1.376692364586752</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.281857502865078</v>
@@ -29478,7 +29430,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.430300537554702</v>
+        <v>1.378191360163219</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.398572911219006</v>
@@ -29567,7 +29519,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.432177604033009</v>
+        <v>1.37841546523173</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.305611506662679</v>
@@ -29656,7 +29608,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.4467538541794</v>
+        <v>1.392386019038105</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.390453150322698</v>
@@ -29745,7 +29697,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.478732777570569</v>
+        <v>1.409527092858745</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.388439227222805</v>
@@ -29834,7 +29786,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.49857084129652</v>
+        <v>1.429463252062064</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.474547301305533</v>
@@ -29923,7 +29875,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.497833822422576</v>
+        <v>1.436838160889192</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.313417472746351</v>
@@ -30012,7 +29964,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.494693652891951</v>
+        <v>1.434508808816269</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.493028680800469</v>
@@ -30101,7 +30053,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.493637654219242</v>
+        <v>1.435019619141878</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.497034381299025</v>
@@ -30190,7 +30142,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.495715761656648</v>
+        <v>1.435983488198803</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.609651180215919</v>
@@ -30279,7 +30231,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.513870574751723</v>
+        <v>1.453728443730621</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.502396019210098</v>
@@ -30368,7 +30320,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.52142426458645</v>
+        <v>1.461673837769575</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.593890657417175</v>
@@ -30457,7 +30409,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.493853813875706</v>
+        <v>1.435053911103023</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.287785884702497</v>
@@ -30546,7 +30498,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.487378872866317</v>
+        <v>1.430952150158411</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.211382982576764</v>
@@ -30635,7 +30587,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.512754039491432</v>
+        <v>1.449987445695961</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.218950063165176</v>
@@ -30724,7 +30676,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.536400228965992</v>
+        <v>1.477790089156257</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.260230572700412</v>
@@ -30813,7 +30765,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.504631909553374</v>
+        <v>1.456937527061597</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.22220384652163</v>
@@ -30902,7 +30854,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.508525675045169</v>
+        <v>1.458924149885448</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.178107273307023</v>
@@ -30991,7 +30943,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.480019037809822</v>
+        <v>1.438023173973086</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.225897894683083</v>
@@ -31080,7 +31032,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.465970397557084</v>
+        <v>1.423927863210733</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.200030202364109</v>
@@ -31169,7 +31121,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.43809314420368</v>
+        <v>1.399276376499834</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.273912063143046</v>
@@ -31258,7 +31210,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.427971206535215</v>
+        <v>1.391741117338544</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.281739855164057</v>
@@ -31347,7 +31299,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.424510234069152</v>
+        <v>1.388996116331481</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.293065518281424</v>
@@ -31436,7 +31388,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.418875189075514</v>
+        <v>1.384199459237485</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.353853241810854</v>
@@ -31525,7 +31477,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.409856465384032</v>
+        <v>1.376104866577649</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.19679982505893</v>
@@ -31614,7 +31566,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.386772450609425</v>
+        <v>1.355340375583934</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.315792613498093</v>
@@ -31703,7 +31655,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.373172173526269</v>
+        <v>1.345626581950446</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.115004724765063</v>
@@ -31792,7 +31744,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.39667933726512</v>
+        <v>1.373376580538359</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.274528429677636</v>
@@ -31881,7 +31833,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.397457193774369</v>
+        <v>1.375675876289547</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.270369130926134</v>
@@ -31970,7 +31922,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.380391379409049</v>
+        <v>1.361002964094318</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.181775725874789</v>
@@ -32059,7 +32011,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.379518281021433</v>
+        <v>1.352672459282657</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.299291964543843</v>
@@ -32148,7 +32100,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.379642924231573</v>
+        <v>1.352986158069915</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.199798052517224</v>
@@ -32237,7 +32189,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.377228084500308</v>
+        <v>1.350058315587012</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.033925732228212</v>
@@ -32326,7 +32278,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.395741558737889</v>
+        <v>1.370962876632663</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.389347136117072</v>
@@ -32415,7 +32367,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.404426662387954</v>
+        <v>1.384164737816054</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.399448154875439</v>
@@ -32504,7 +32456,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.441479962057059</v>
+        <v>1.415989453581433</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.301007912449863</v>
@@ -32593,7 +32545,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.444083166936398</v>
+        <v>1.416833483775975</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.380741248643965</v>
@@ -32682,7 +32634,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.417145604031105</v>
+        <v>1.393701904865396</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.333529139121806</v>
@@ -32771,7 +32723,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.416108719541081</v>
+        <v>1.395379574114006</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.198539921938683</v>
@@ -32860,7 +32812,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.408007413207423</v>
+        <v>1.391229710541245</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.362611304380126</v>
@@ -32949,7 +32901,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.423222144030169</v>
+        <v>1.404049475178476</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.318105911737176</v>
